--- a/DATABASE_FINAL_DATA.xlsx
+++ b/DATABASE_FINAL_DATA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia-PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasia-PC\Desktop\DATABASE_FINAL\AFROTC-Attendance-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -405,12 +405,21 @@
   </si>
   <si>
     <t>bsnider</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>rachell</t>
+  </si>
+  <si>
+    <t>parrish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,15 +465,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,11 +786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +842,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;RANDBETWEEN(0,999)</f>
-        <v>fyo587</v>
+        <v>sif92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,17 +860,17 @@
         <v>100</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">LEFT(B3,1)&amp;LEFT(C3,15)</f>
+        <f t="shared" ref="E3:E68" si="0">LEFT(B3,1)&amp;LEFT(C3,15)</f>
         <v>dbass</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="1">LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;RANDBETWEEN(0,999)</f>
-        <v>exz187</v>
+        <f t="shared" ref="F3:F68" ca="1" si="1">LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;LOWER(CHAR(RANDBETWEEN(65,90)))&amp;RANDBETWEEN(0,999)</f>
+        <v>tce694</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A20" si="2">A3+1</f>
+        <f t="shared" ref="A4:A18" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -877,7 +888,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>uvv420</v>
+        <v>diw309</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,7 +911,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qcz850</v>
+        <v>vvb985</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,7 +934,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qet528</v>
+        <v>oos273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,7 +957,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pbi937</v>
+        <v>yig574</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +980,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sxp288</v>
+        <v>lod976</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,7 +1003,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>drx472</v>
+        <v>qyy79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,7 +1026,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qlm58</v>
+        <v>uzs584</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,7 +1049,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>juu649</v>
+        <v>njm782</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,7 +1072,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nne783</v>
+        <v>zta830</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1095,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vzu640</v>
+        <v>bdt252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1118,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vuv504</v>
+        <v>mgn339</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1141,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>efy391</v>
+        <v>xie839</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,7 +1164,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>whw251</v>
+        <v>fnk884</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,7 +1187,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fma114</v>
+        <v>mmf289</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1210,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ykv90</v>
+        <v>rlj702</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1222,12 +1233,12 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vne397</v>
+        <v>suc469</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ref="A20:A36" si="3">A19+1</f>
+        <f t="shared" ref="A20" si="3">A19+1</f>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1245,7 +1256,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vfm190</v>
+        <v>aon806</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,7 +1279,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qox378</v>
+        <v>ccz84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1302,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rmg88</v>
+        <v>mto9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,7 +1325,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>muh776</v>
+        <v>rzy50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,7 +1348,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>scu464</v>
+        <v>jmm712</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1371,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>psv453</v>
+        <v>zlz209</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,7 +1394,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>oni532</v>
+        <v>dmx240</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,7 +1417,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>hta688</v>
+        <v>hez666</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1440,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>plh799</v>
+        <v>ylt838</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1463,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tfc263</v>
+        <v>stz677</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,7 +1486,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lty243</v>
+        <v>fux762</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,7 +1509,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>kks439</v>
+        <v>yrm671</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,7 +1532,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>wzq291</v>
+        <v>sts730</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,7 +1555,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fyq906</v>
+        <v>lfd321</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,7 +1578,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fpa935</v>
+        <v>znv829</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,7 +1601,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>por81</v>
+        <v>hyv620</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,7 +1624,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qtq552</v>
+        <v>kyt702</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1636,7 +1647,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>bgt872</v>
+        <v>slw711</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1670,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>mkp849</v>
+        <v>nqh851</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,7 +1693,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jns310</v>
+        <v>swv900</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1716,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tsv847</v>
+        <v>nxk323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,7 +1739,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>kly891</v>
+        <v>vry724</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,7 +1762,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ras705</v>
+        <v>are999</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,7 +1785,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ike185</v>
+        <v>ryk99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1797,7 +1808,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>bbq410</v>
+        <v>fyt879</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,7 +1831,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>yrv777</v>
+        <v>cze157</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1854,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vzt464</v>
+        <v>gga557</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1877,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qwf582</v>
+        <v>fsh158</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,7 +1900,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>zrz989</v>
+        <v>hdp711</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1923,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ipy290</v>
+        <v>syb549</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,7 +1946,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lrp703</v>
+        <v>bdj317</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1969,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>wtz617</v>
+        <v>srr330</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,7 +1992,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gkk888</v>
+        <v>ehp137</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,7 +2015,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pai165</v>
+        <v>kdf944</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,7 +2038,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>dxv424</v>
+        <v>ulk211</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,7 +2061,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ukg903</v>
+        <v>gkq290</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,7 +2084,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ruj843</v>
+        <v>zaf431</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2096,7 +2107,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gse290</v>
+        <v>oor865</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,7 +2129,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pka171</v>
+        <v>cpb309</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,7 +2152,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>brp107</v>
+        <v>rki863</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2175,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tsw841</v>
+        <v>lai955</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2187,7 +2198,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lge866</v>
+        <v>hsm314</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,7 +2221,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pgm68</v>
+        <v>qyf98</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2233,7 +2244,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>emf513</v>
+        <v>mbx700</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,7 +2267,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>htj464</v>
+        <v>xcm844</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,7 +2290,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ayu803</v>
+        <v>avl450</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2302,14 +2313,52 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>nnl274</v>
+        <v>hws263</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="5">
+        <v>300</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>erachell</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>uqo86</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="5">
+        <v>300</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="0"/>
+        <v>aparrish</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>bqs296</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
